--- a/pandas_conditional.xlsx
+++ b/pandas_conditional.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>OSMZU</t>
+    <t>DNQJO</t>
   </si>
   <si>
-    <t>RFIZD</t>
+    <t>ZUBSO</t>
   </si>
   <si>
-    <t>MJICJ</t>
+    <t>XPCBL</t>
   </si>
   <si>
-    <t>LDGJH</t>
+    <t>UDIMS</t>
   </si>
   <si>
-    <t>TXJMV</t>
+    <t>TKKFW</t>
   </si>
   <si>
-    <t>MOOCL</t>
+    <t>QTYNZ</t>
   </si>
   <si>
-    <t>QIJAX</t>
+    <t>STGSM</t>
   </si>
 </sst>
 </file>
@@ -106,14 +106,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFPEACHPUFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
+          <bgColor rgb="FFFF6600"/>
         </patternFill>
       </fill>
     </dxf>
@@ -438,172 +438,172 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.707801072582092</v>
+        <v>0.73855028832559</v>
       </c>
       <c r="B2">
-        <v>0.431911872060141</v>
+        <v>0.806422661294217</v>
       </c>
       <c r="C2">
-        <v>0.311527263376744</v>
+        <v>0.721608825535191</v>
       </c>
       <c r="D2">
-        <v>0.749287688083486</v>
+        <v>0.00913680865116973</v>
       </c>
       <c r="E2">
-        <v>0.176746259401525</v>
+        <v>0.232466342179338</v>
       </c>
       <c r="F2">
-        <v>0.661225054434216</v>
+        <v>0.344569684691</v>
       </c>
       <c r="G2">
-        <v>0.171821076426829</v>
+        <v>0.503334294742189</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.856205705061763</v>
+        <v>0.82392646135394</v>
       </c>
       <c r="B3">
-        <v>0.421801968390468</v>
+        <v>0.272925490671113</v>
       </c>
       <c r="C3">
-        <v>0.701305957854164</v>
+        <v>0.745530725886283</v>
       </c>
       <c r="D3">
-        <v>0.357512954354395</v>
+        <v>0.438184577864237</v>
       </c>
       <c r="E3">
-        <v>0.488639519539645</v>
+        <v>0.0742804958398952</v>
       </c>
       <c r="F3">
-        <v>0.878906450455192</v>
+        <v>0.787225069645782</v>
       </c>
       <c r="G3">
-        <v>0.310176313581078</v>
+        <v>0.613182094352778</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.441596657192481</v>
+        <v>0.739321919734169</v>
       </c>
       <c r="B4">
-        <v>0.57913018926838</v>
+        <v>0.6133882801262</v>
       </c>
       <c r="C4">
-        <v>0.590643596837201</v>
+        <v>0.840417583667642</v>
       </c>
       <c r="D4">
-        <v>0.355610146575812</v>
+        <v>0.219730985680126</v>
       </c>
       <c r="E4">
-        <v>0.760914595043861</v>
+        <v>0.164606292765344</v>
       </c>
       <c r="F4">
-        <v>0.836585213440702</v>
+        <v>0.913095871390256</v>
       </c>
       <c r="G4">
-        <v>0.164844761695694</v>
+        <v>0.325500680457915</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.850957134296091</v>
+        <v>0.834222252105944</v>
       </c>
       <c r="B5">
-        <v>0.510595199343354</v>
+        <v>0.881381673348496</v>
       </c>
       <c r="C5">
-        <v>0.48243280476357</v>
+        <v>0.75008190787794</v>
       </c>
       <c r="D5">
-        <v>0.206053073175464</v>
+        <v>0.717050370864339</v>
       </c>
       <c r="E5">
-        <v>0.178118983834692</v>
+        <v>0.398980855164663</v>
       </c>
       <c r="F5">
-        <v>0.852825866958301</v>
+        <v>0.253958103763592</v>
       </c>
       <c r="G5">
-        <v>0.66072070022523</v>
+        <v>0.661223983388672</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.632589527891793</v>
+        <v>0.419691931187055</v>
       </c>
       <c r="B6">
-        <v>0.84550376202943</v>
+        <v>0.729983809824061</v>
       </c>
       <c r="C6">
-        <v>0.232336324705697</v>
+        <v>0.371482274618656</v>
       </c>
       <c r="D6">
-        <v>0.578245658751505</v>
+        <v>0.88285964025557</v>
       </c>
       <c r="E6">
-        <v>0.279180269074657</v>
+        <v>0.505221969461591</v>
       </c>
       <c r="F6">
-        <v>0.290978315722124</v>
+        <v>0.230476309981477</v>
       </c>
       <c r="G6">
-        <v>0.196799429975852</v>
+        <v>0.67575264075002</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.852716009366205</v>
+        <v>0.194443975397785</v>
       </c>
       <c r="B7">
-        <v>0.00451848105309849</v>
+        <v>0.416650991228563</v>
       </c>
       <c r="C7">
-        <v>0.287152485630531</v>
+        <v>0.937144805773109</v>
       </c>
       <c r="D7">
-        <v>0.11913099882739</v>
+        <v>0.468166346749247</v>
       </c>
       <c r="E7">
-        <v>0.496080359888397</v>
+        <v>0.0384130169976611</v>
       </c>
       <c r="F7">
-        <v>0.400799393223052</v>
+        <v>0.991290047840818</v>
       </c>
       <c r="G7">
-        <v>0.825146097786472</v>
+        <v>0.399310876387188</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.960912550456956</v>
+        <v>0.216236146312868</v>
       </c>
       <c r="B8">
-        <v>0.145775523271323</v>
+        <v>0.580900624727268</v>
       </c>
       <c r="C8">
-        <v>0.51491529349642</v>
+        <v>0.338050703212953</v>
       </c>
       <c r="D8">
-        <v>0.427011129868864</v>
+        <v>0.248347244653011</v>
       </c>
       <c r="E8">
-        <v>0.891233505254286</v>
+        <v>0.452993328654865</v>
       </c>
       <c r="F8">
-        <v>0.39405907687455</v>
+        <v>0.972450726221381</v>
       </c>
       <c r="G8">
-        <v>0.481943324966323</v>
+        <v>0.732663007068175</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G8">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>SEARCH("LDGJH",A$1&amp;G$8)</formula>
+      <formula>SEARCH("UDIMS",A$1&amp;G$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>SEARCH("QIJAX",A$1&amp;G$8)</formula>
+      <formula>SEARCH("STGSM",A$1&amp;G$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/pandas_conditional.xlsx
+++ b/pandas_conditional.xlsx
@@ -16,25 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
-    <t>DNQJO</t>
+    <t>QNHTR</t>
   </si>
   <si>
-    <t>ZUBSO</t>
+    <t>ENTJP</t>
   </si>
   <si>
-    <t>XPCBL</t>
+    <t>YPGCH</t>
   </si>
   <si>
-    <t>UDIMS</t>
+    <t>REMXE</t>
   </si>
   <si>
-    <t>TKKFW</t>
+    <t>ASROI</t>
   </si>
   <si>
-    <t>QTYNZ</t>
+    <t>XWPAK</t>
   </si>
   <si>
-    <t>STGSM</t>
+    <t>WWGKJ</t>
   </si>
 </sst>
 </file>
@@ -438,172 +438,172 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>0.73855028832559</v>
+        <v>0.7572782714382112</v>
       </c>
       <c r="B2">
-        <v>0.806422661294217</v>
+        <v>0.8554085719789194</v>
       </c>
       <c r="C2">
-        <v>0.721608825535191</v>
+        <v>0.743964892934888</v>
       </c>
       <c r="D2">
-        <v>0.00913680865116973</v>
+        <v>0.2785575719195833</v>
       </c>
       <c r="E2">
-        <v>0.232466342179338</v>
+        <v>0.9071106245918372</v>
       </c>
       <c r="F2">
-        <v>0.344569684691</v>
+        <v>0.2338724839890911</v>
       </c>
       <c r="G2">
-        <v>0.503334294742189</v>
+        <v>0.07031416593722639</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>0.82392646135394</v>
+        <v>0.8228489471671142</v>
       </c>
       <c r="B3">
-        <v>0.272925490671113</v>
+        <v>0.3950477168854259</v>
       </c>
       <c r="C3">
-        <v>0.745530725886283</v>
+        <v>0.5770863538507037</v>
       </c>
       <c r="D3">
-        <v>0.438184577864237</v>
+        <v>0.6921966038472342</v>
       </c>
       <c r="E3">
-        <v>0.0742804958398952</v>
+        <v>0.7017501719460709</v>
       </c>
       <c r="F3">
-        <v>0.787225069645782</v>
+        <v>0.1723150713200162</v>
       </c>
       <c r="G3">
-        <v>0.613182094352778</v>
+        <v>0.2180927736689087</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>0.739321919734169</v>
+        <v>0.8651876329645048</v>
       </c>
       <c r="B4">
-        <v>0.6133882801262</v>
+        <v>0.7993587608057398</v>
       </c>
       <c r="C4">
-        <v>0.840417583667642</v>
+        <v>0.003658060801798202</v>
       </c>
       <c r="D4">
-        <v>0.219730985680126</v>
+        <v>0.7990521970479573</v>
       </c>
       <c r="E4">
-        <v>0.164606292765344</v>
+        <v>0.9973569604030911</v>
       </c>
       <c r="F4">
-        <v>0.913095871390256</v>
+        <v>0.8540785541596686</v>
       </c>
       <c r="G4">
-        <v>0.325500680457915</v>
+        <v>0.6600880665945673</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>0.834222252105944</v>
+        <v>0.01397408730679328</v>
       </c>
       <c r="B5">
-        <v>0.881381673348496</v>
+        <v>0.4523486993554272</v>
       </c>
       <c r="C5">
-        <v>0.75008190787794</v>
+        <v>0.4269391782734065</v>
       </c>
       <c r="D5">
-        <v>0.717050370864339</v>
+        <v>0.2808716807358647</v>
       </c>
       <c r="E5">
-        <v>0.398980855164663</v>
+        <v>0.4617890302536654</v>
       </c>
       <c r="F5">
-        <v>0.253958103763592</v>
+        <v>0.8008055061404635</v>
       </c>
       <c r="G5">
-        <v>0.661223983388672</v>
+        <v>0.874573569526317</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>0.419691931187055</v>
+        <v>0.9887622084944119</v>
       </c>
       <c r="B6">
-        <v>0.729983809824061</v>
+        <v>0.3890064222258763</v>
       </c>
       <c r="C6">
-        <v>0.371482274618656</v>
+        <v>0.6132813123124224</v>
       </c>
       <c r="D6">
-        <v>0.88285964025557</v>
+        <v>0.9804236706757706</v>
       </c>
       <c r="E6">
-        <v>0.505221969461591</v>
+        <v>0.8086897229218409</v>
       </c>
       <c r="F6">
-        <v>0.230476309981477</v>
+        <v>0.7164295514083354</v>
       </c>
       <c r="G6">
-        <v>0.67575264075002</v>
+        <v>0.4099336402233846</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>0.194443975397785</v>
+        <v>0.7284406759182872</v>
       </c>
       <c r="B7">
-        <v>0.416650991228563</v>
+        <v>0.7230922059910408</v>
       </c>
       <c r="C7">
-        <v>0.937144805773109</v>
+        <v>0.7744072583874351</v>
       </c>
       <c r="D7">
-        <v>0.468166346749247</v>
+        <v>0.1178223315813094</v>
       </c>
       <c r="E7">
-        <v>0.0384130169976611</v>
+        <v>0.1097777057508988</v>
       </c>
       <c r="F7">
-        <v>0.991290047840818</v>
+        <v>0.04055823711504281</v>
       </c>
       <c r="G7">
-        <v>0.399310876387188</v>
+        <v>0.8740752249866348</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>0.216236146312868</v>
+        <v>0.9874638817054963</v>
       </c>
       <c r="B8">
-        <v>0.580900624727268</v>
+        <v>0.5712638751147452</v>
       </c>
       <c r="C8">
-        <v>0.338050703212953</v>
+        <v>0.5724627853621057</v>
       </c>
       <c r="D8">
-        <v>0.248347244653011</v>
+        <v>0.05804068372415694</v>
       </c>
       <c r="E8">
-        <v>0.452993328654865</v>
+        <v>0.1685226183395538</v>
       </c>
       <c r="F8">
-        <v>0.972450726221381</v>
+        <v>0.268442898313532</v>
       </c>
       <c r="G8">
-        <v>0.732663007068175</v>
+        <v>0.4256053339591607</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G8">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>SEARCH("UDIMS",A$1&amp;G$8)</formula>
+      <formula>SEARCH("REMXE",A$1&amp;G$8)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>SEARCH("STGSM",A$1&amp;G$8)</formula>
+      <formula>SEARCH("WWGKJ",A$1&amp;G$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
